--- a/FrontPsych Navy Paper/Navy VR data Front Psych 2026.xlsx
+++ b/FrontPsych Navy Paper/Navy VR data Front Psych 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renee\Documents\GitHub\Immersive-VR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renee\Documents\GitHub\Immersive-VR\FrontPsych Navy Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A6615D-C777-4F74-8746-D7FD8BBE87DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59C27F6-5989-4C0F-9EE2-C9D6CC56CE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15270" yWindow="-18255" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Survey Scores" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Survey Scores'!$A$2:$CR$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Survey Scores'!$A$2:$CJ$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="207">
   <si>
     <t>PANAS PA</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Exclude</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -406,13 +403,6 @@
     <t>Which VR scenario did you pick for this session?</t>
   </si>
   <si>
-    <t>Did you experience any motion sickness symptoms during your virtual reality session? For example: eyestrain, headache, dizziness, general discomfort, etc.
-If yes, please explain your symptoms and their severity:</t>
-  </si>
-  <si>
-    <t>If you would like to provide feedback on the virtual reality environment or otherwise comment, you may do so here:</t>
-  </si>
-  <si>
     <t>PRS - Being away</t>
   </si>
   <si>
@@ -491,12 +481,6 @@
     <t>PANASPA_delta.VR1</t>
   </si>
   <si>
-    <t>VRSQ.VR1</t>
-  </si>
-  <si>
-    <t>Feedback.VR1</t>
-  </si>
-  <si>
     <t>PRS-Beingaway.VR1</t>
   </si>
   <si>
@@ -542,12 +526,6 @@
     <t>PANASPA_delta.VR2</t>
   </si>
   <si>
-    <t>VRSQ.VR2</t>
-  </si>
-  <si>
-    <t>Feedback.VR2</t>
-  </si>
-  <si>
     <t>PRS-Beingaway.VR2</t>
   </si>
   <si>
@@ -593,12 +571,6 @@
     <t>PANASPA_delta.VR3</t>
   </si>
   <si>
-    <t>VRSQ.VR3</t>
-  </si>
-  <si>
-    <t>Feedback.VR3</t>
-  </si>
-  <si>
     <t>PRS-Beingaway.VR3</t>
   </si>
   <si>
@@ -644,12 +616,6 @@
     <t>PANASPA_delta.VR4</t>
   </si>
   <si>
-    <t>VRSQ.VR4</t>
-  </si>
-  <si>
-    <t>Feedback.VR4</t>
-  </si>
-  <si>
     <t>PRS-Beingaway.VR4</t>
   </si>
   <si>
@@ -683,151 +649,31 @@
     <t>Comments.VR4</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Beach, garden</t>
   </si>
   <si>
-    <t>Yes, nausea, and a lot of movement made me feel uneasy</t>
-  </si>
-  <si>
     <t>Forest</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Forest, beach</t>
   </si>
   <si>
     <t>Forest, beach, garden</t>
   </si>
   <si>
-    <t>No discomfort, felt normal the entire time</t>
-  </si>
-  <si>
-    <t>The environments would be significantly more enjoyable with items to interact with</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Slightly laggy - found out today that sound is ni the software, but it's glitchy, and scrambled</t>
-  </si>
-  <si>
-    <t>More things to interact with, and music or sound would make it better</t>
-  </si>
-  <si>
-    <t>Additional things to interact with would be great!</t>
-  </si>
-  <si>
     <t>Beach</t>
   </si>
   <si>
-    <t>Visuals are gerat, would be more immersive with either sound effects or complete noice cancelling headphones</t>
-  </si>
-  <si>
     <t>Garden</t>
   </si>
   <si>
-    <t>Eye strain 3/10</t>
-  </si>
-  <si>
-    <t>Eyestrain 3/10</t>
-  </si>
-  <si>
-    <t>The VR was okay. The quality of the (Vive) model was 6/10 at best. The graphics are a few generations behind current VR units on the market. The "beach" map was somewhat small and lacked interaction with the items on the map. I.E. you could only grab two items. The essential oils also were minimally used on this map. The encorporation of sound effects would also enhance the experience.</t>
-  </si>
-  <si>
     <t>Forest, garden</t>
   </si>
   <si>
-    <t>The forest is a better environment than the beach. The size was much better than the beach. I then did the garden which was my favorite. I enjoyed the amount of essential oil being used and the amount of things to grab in this environment. Again would like the use of sound to immerse myself even more.</t>
-  </si>
-  <si>
-    <t>Yes, I think because the ship is rocking I felt a little nauseus</t>
-  </si>
-  <si>
-    <t>The more I do it, the more bored I get. It would be better if it was more stimulating</t>
-  </si>
-  <si>
-    <t>Today was a great VR day! I was able to find the pinecone of death! In all seriousness, there is a coding glitch around a pine cone. I felt stimulated and in an unintended way, felt immersed and out of the real environment. The VR needs to include more stimulation. &lt;3 B19</t>
-  </si>
-  <si>
     <t>Careless IPQ and PRS</t>
   </si>
   <si>
-    <t>Slight motion sickness due to ship rocking</t>
-  </si>
-  <si>
-    <t>It was enjoyable and time passed very quickly</t>
-  </si>
-  <si>
     <t>Witout scents due to router malfunction</t>
-  </si>
-  <si>
-    <t>it would be cool to see some type of life in the water</t>
-  </si>
-  <si>
-    <t>Small discomfort from weight of headset</t>
-  </si>
-  <si>
-    <t>Relatively low picture quality</t>
-  </si>
-  <si>
-    <t>Would love sounds or animals in the forest setting</t>
-  </si>
-  <si>
-    <t>Felt warm. A litle queeziness</t>
-  </si>
-  <si>
-    <t>I felt minor eyestrain and dizziness</t>
-  </si>
-  <si>
-    <t>The environment overall is great. However, for the developed "product", I would recommend more objects to interact with, as the VR world felt lonely at some points</t>
-  </si>
-  <si>
-    <t>I enjoyed how the beach had more items to interact with</t>
-  </si>
-  <si>
-    <t>Mild eyestrain</t>
-  </si>
-  <si>
-    <t>The garden was my favorite so far. There were many llike it where I grew up, so the scents gave me a bit of deja vu</t>
-  </si>
-  <si>
-    <t>Only felt I would trip over rock or hit face on branch. Also felt I would sllide down hill. Calves tightened up walking up hill.</t>
-  </si>
-  <si>
-    <t>Would be nice to hear some nature, trees in the wind, water rushing, animals</t>
-  </si>
-  <si>
-    <t>Excitement wares off quickly due to confines space. Smells great, but too small area</t>
-  </si>
-  <si>
-    <t>Held my breath for a second thinking the waves would drown me</t>
-  </si>
-  <si>
-    <t>Wildlife or underwater experience would've been great</t>
-  </si>
-  <si>
-    <t>The lack of sound threw me. I heard lots of ship sounds and medical team talks. reduced emersion. I could not skip the roks it made me sad. Lol
-Actual mountians would be cool
-I really wish I could have been in the smell group
-HAPPY Light: UV light for when the "sun" is out</t>
-  </si>
-  <si>
-    <t>The computer strugggled to generate the VR environment today. Laggy and it broke up/rendering lag. Latency issues were a problem. Needs a more powerful computer to reach full potential (tower would be better)</t>
-  </si>
-  <si>
-    <t>The headset was't very comfortable today my face started to hurt</t>
-  </si>
-  <si>
-    <t>It is getting a little boring. I still think it is great but only being able to walk around (no smells or sounds) gets monotonus</t>
-  </si>
-  <si>
-    <t>Exclude = 1 subjects were attrite and only completed Baseline data collection. Subjects 5 and 12 are not included as they only completed the familiarization session. Subject B10 was excluded from analysis due to careless survey responses</t>
   </si>
   <si>
     <t xml:space="preserve">Data used for linear mixed models. Includes only measures administed to all three groups at all three time points: NASA TLX, PANAS PA and NA, and BRS and the Cognition battery. All cognition metrics are the final scores adjusted for both practice and stimulus corrections
@@ -883,6 +729,12 @@
   </si>
   <si>
     <t>IPQ-Total.VR2</t>
+  </si>
+  <si>
+    <t>Attrite = 1 subjects were attrite and only completed Baseline data collection. Subjects 5 and 12 are not included as they only completed the familiarization session. Subject B10 was excluded from analysis due to careless survey responses</t>
+  </si>
+  <si>
+    <t>Attrite</t>
   </si>
 </sst>
 </file>
@@ -893,7 +745,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,12 +766,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -999,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1018,7 +864,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1334,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,7 +1196,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1377,105 +1222,105 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
       </c>
       <c r="E3">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3">
         <v>45296</v>
@@ -1555,22 +1400,22 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
       </c>
       <c r="E4">
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3">
         <v>45304</v>
@@ -1650,22 +1495,22 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3">
         <v>45307</v>
@@ -1745,22 +1590,22 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3">
         <v>45296</v>
@@ -1840,22 +1685,22 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3"/>
       <c r="K7" s="4">
@@ -1924,22 +1769,22 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3"/>
       <c r="K8" s="4">
@@ -2008,22 +1853,22 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3">
         <v>45296</v>
@@ -2103,22 +1948,22 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
       </c>
       <c r="E10">
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3">
         <v>45305</v>
@@ -2198,22 +2043,22 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3">
         <v>45308</v>
@@ -2293,22 +2138,22 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3">
         <v>45296</v>
@@ -2388,22 +2233,22 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3">
         <v>45307</v>
@@ -2483,22 +2328,22 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
       </c>
       <c r="E14">
         <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="3">
         <v>45296</v>
@@ -2578,22 +2423,22 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3">
         <v>45296</v>
@@ -2673,22 +2518,22 @@
     </row>
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3">
         <v>45296</v>
@@ -2768,22 +2613,22 @@
     </row>
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="3">
         <v>45296</v>
@@ -2864,22 +2709,22 @@
     </row>
     <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3">
         <v>45302</v>
@@ -2953,22 +2798,22 @@
     </row>
     <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="3">
         <v>45308</v>
@@ -3048,22 +2893,22 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="3">
         <v>45296</v>
@@ -3144,22 +2989,22 @@
     </row>
     <row r="21" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="3">
         <v>45305</v>
@@ -3233,22 +3078,22 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="3">
         <v>45309</v>
@@ -3328,22 +3173,22 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
       <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
         <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
       </c>
       <c r="E23">
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="3">
         <v>45296</v>
@@ -3414,22 +3259,22 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
         <v>73</v>
       </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="3">
         <v>45302</v>
@@ -3509,22 +3354,22 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="3">
         <v>45308</v>
@@ -3604,22 +3449,22 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
       <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
         <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
       </c>
       <c r="E26">
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="3">
         <v>45296</v>
@@ -3699,22 +3544,22 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="3">
         <v>45305</v>
@@ -3794,22 +3639,22 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28">
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="3">
         <v>45308</v>
@@ -3889,22 +3734,22 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="3">
         <v>45296</v>
@@ -3975,22 +3820,22 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" s="3">
         <v>45302</v>
@@ -4070,22 +3915,22 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" s="3">
         <v>45308</v>
@@ -4165,22 +4010,22 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="3">
         <v>45296</v>
@@ -4260,22 +4105,22 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
         <v>77</v>
       </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33">
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="3">
         <v>45303</v>
@@ -4355,22 +4200,22 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
         <v>77</v>
       </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" s="3">
         <v>45308</v>
@@ -4450,22 +4295,22 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="3">
         <v>45296</v>
@@ -4545,22 +4390,22 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" s="3">
         <v>45303</v>
@@ -4640,22 +4485,22 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37" s="3">
         <v>45308</v>
@@ -4735,22 +4580,22 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
       <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
         <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
       </c>
       <c r="E38">
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="3">
         <v>45296</v>
@@ -4830,22 +4675,22 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>47</v>
       </c>
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E39">
         <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" s="3">
         <v>45304</v>
@@ -4925,22 +4770,22 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" s="3">
         <v>45308</v>
@@ -5020,22 +4865,22 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41">
         <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41" s="3">
         <v>45297</v>
@@ -5110,22 +4955,22 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42">
         <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" s="3">
         <v>45303</v>
@@ -5205,22 +5050,22 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
         <v>63</v>
       </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43">
         <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" s="3">
         <v>45309</v>
@@ -5300,22 +5145,22 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="B44" t="s">
-        <v>78</v>
-      </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" s="3">
         <v>45297</v>
@@ -5395,22 +5240,22 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
       <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
         <v>38</v>
-      </c>
-      <c r="D45" t="s">
-        <v>39</v>
       </c>
       <c r="E45">
         <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" s="3">
         <v>45297</v>
@@ -5490,22 +5335,22 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46">
         <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" s="3">
         <v>45305</v>
@@ -5585,22 +5430,22 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
         <v>85</v>
       </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E47">
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47" s="3">
         <v>45308</v>
@@ -5680,22 +5525,22 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
         <v>79</v>
       </c>
-      <c r="B48" t="s">
-        <v>80</v>
-      </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48">
         <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G48" s="3">
         <v>45297</v>
@@ -5775,22 +5620,22 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" s="3">
         <v>45305</v>
@@ -5870,22 +5715,22 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E50">
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50" s="3">
         <v>45309</v>
@@ -5965,22 +5810,22 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
         <v>87</v>
       </c>
-      <c r="B51" t="s">
-        <v>88</v>
-      </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E51">
         <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" s="3">
         <v>45297</v>
@@ -6060,22 +5905,22 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
         <v>87</v>
       </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E52">
         <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" s="3">
         <v>45303</v>
@@ -6155,22 +6000,22 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" t="s">
         <v>87</v>
       </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E53">
         <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" s="3">
         <v>45308</v>
@@ -6250,22 +6095,22 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
         <v>38</v>
-      </c>
-      <c r="D54" t="s">
-        <v>39</v>
       </c>
       <c r="E54">
         <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54" s="3">
         <v>45299</v>
@@ -6345,22 +6190,22 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
         <v>90</v>
       </c>
-      <c r="B55" t="s">
-        <v>91</v>
-      </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E55">
         <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" s="3">
         <v>45305</v>
@@ -6440,22 +6285,22 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
         <v>90</v>
       </c>
-      <c r="B56" t="s">
-        <v>91</v>
-      </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E56">
         <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" s="3">
         <v>45306</v>
@@ -6535,22 +6380,22 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" t="s">
         <v>90</v>
       </c>
-      <c r="B57" t="s">
-        <v>91</v>
-      </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E57">
         <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" s="3">
         <v>45299</v>
@@ -6630,22 +6475,22 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
         <v>85</v>
       </c>
-      <c r="B58" t="s">
-        <v>86</v>
-      </c>
       <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
         <v>38</v>
-      </c>
-      <c r="D58" t="s">
-        <v>39</v>
       </c>
       <c r="E58">
         <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" s="3">
         <v>45300</v>
@@ -6686,22 +6531,22 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
         <v>94</v>
       </c>
-      <c r="B59" t="s">
-        <v>95</v>
-      </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E59">
         <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59" s="3">
         <v>45304</v>
@@ -6781,22 +6626,22 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
         <v>94</v>
       </c>
-      <c r="B60" t="s">
-        <v>95</v>
-      </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E60">
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60" s="3">
         <v>45309</v>
@@ -6870,22 +6715,22 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
         <v>69</v>
       </c>
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E61">
         <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" s="3">
         <v>45299</v>
@@ -6965,22 +6810,22 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
         <v>59</v>
       </c>
-      <c r="B62" t="s">
-        <v>60</v>
-      </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E62">
         <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G62" s="3">
         <v>45304</v>
@@ -7060,22 +6905,22 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" t="s">
-        <v>60</v>
-      </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E63">
         <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G63" s="3">
         <v>45307</v>
@@ -7152,22 +6997,22 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
         <v>94</v>
       </c>
-      <c r="B64" t="s">
-        <v>95</v>
-      </c>
       <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" t="s">
         <v>38</v>
-      </c>
-      <c r="D64" t="s">
-        <v>39</v>
       </c>
       <c r="E64">
         <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64" s="3">
         <v>45299</v>
@@ -7247,22 +7092,22 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
-        <v>72</v>
-      </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E65">
         <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" s="3">
         <v>45306</v>
@@ -7342,22 +7187,22 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
         <v>71</v>
       </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66">
         <v>28</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G66" s="3">
         <v>45309</v>
@@ -7437,22 +7282,22 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
         <v>85</v>
       </c>
-      <c r="B67" t="s">
-        <v>86</v>
-      </c>
       <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" t="s">
         <v>38</v>
-      </c>
-      <c r="D67" t="s">
-        <v>39</v>
       </c>
       <c r="E67">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67" s="3">
         <v>45300</v>
@@ -7505,22 +7350,22 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
         <v>36</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>37</v>
       </c>
-      <c r="C68" t="s">
-        <v>38</v>
-      </c>
       <c r="D68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E68">
         <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G68" s="3">
         <v>45305</v>
@@ -7600,22 +7445,22 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
         <v>92</v>
       </c>
-      <c r="B69" t="s">
-        <v>93</v>
-      </c>
       <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" t="s">
         <v>38</v>
-      </c>
-      <c r="D69" t="s">
-        <v>39</v>
       </c>
       <c r="E69">
         <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" s="3">
         <v>45300</v>
@@ -7696,22 +7541,22 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
         <v>83</v>
       </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E70">
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70" s="3">
         <v>45303</v>
@@ -7791,22 +7636,22 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" t="s">
         <v>83</v>
       </c>
-      <c r="B71" t="s">
-        <v>84</v>
-      </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E71">
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G71" s="3">
         <v>45308</v>
@@ -7886,22 +7731,22 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" t="s">
         <v>57</v>
       </c>
-      <c r="B72" t="s">
-        <v>58</v>
-      </c>
       <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" t="s">
         <v>38</v>
-      </c>
-      <c r="D72" t="s">
-        <v>39</v>
       </c>
       <c r="E72">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G72" s="3">
         <v>45303</v>
@@ -7981,22 +7826,22 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E73">
         <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G73" s="3">
         <v>45302</v>
@@ -8076,22 +7921,22 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E74">
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G74" s="3">
         <v>45308</v>
@@ -8177,10 +8022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4506E-7787-40B5-B507-F98025B636B3}">
-  <dimension ref="A1:CR29"/>
+  <dimension ref="A1:CJ29"/>
   <sheetViews>
-    <sheetView topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="CM9" sqref="CM9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8188,14 +8033,14 @@
     <col min="7" max="7" width="19.81640625" customWidth="1"/>
     <col min="12" max="12" width="9.453125" customWidth="1"/>
     <col min="16" max="16" width="9.453125" customWidth="1"/>
-    <col min="40" max="40" width="9.453125" customWidth="1"/>
-    <col min="59" max="59" width="9.453125" customWidth="1"/>
-    <col min="78" max="78" width="9.453125" customWidth="1"/>
+    <col min="38" max="38" width="9.453125" customWidth="1"/>
+    <col min="55" max="55" width="9.453125" customWidth="1"/>
+    <col min="72" max="72" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -8231,61 +8076,61 @@
         <v>2</v>
       </c>
       <c r="V1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" t="s">
         <v>96</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>98</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD1" t="s">
         <v>100</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>101</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>103</v>
       </c>
-      <c r="AG1" t="s">
-        <v>104</v>
-      </c>
       <c r="AH1" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="AI1" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="AJ1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL1" t="s">
         <v>0</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AM1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP1" t="s">
         <v>96</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>97</v>
+      </c>
       <c r="AR1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AS1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AT1" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="AU1" t="s">
         <v>100</v>
@@ -8297,121 +8142,97 @@
         <v>102</v>
       </c>
       <c r="AX1" t="s">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="AY1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO1" t="s">
         <v>103</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BP1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>1</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BR1" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BU1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX1" t="s">
         <v>96</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BY1" t="s">
         <v>97</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BZ1" t="s">
         <v>98</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CA1" t="s">
         <v>99</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="CB1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CC1" t="s">
         <v>100</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CD1" t="s">
         <v>101</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CE1" t="s">
         <v>102</v>
       </c>
-      <c r="BQ1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BR1" t="s">
+      <c r="CF1" t="s">
         <v>103</v>
       </c>
-      <c r="BS1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BW1" t="s">
+      <c r="CG1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CH1" t="s">
         <v>1</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CI1" t="s">
         <v>0</v>
       </c>
-      <c r="CA1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>247</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>248</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -8422,292 +8243,268 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="U2" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="V2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="W2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AE2" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AL2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AM2" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8" t="s">
+      <c r="AN2" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AO2" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AP2" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU2" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AW2" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AX2" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="AY2" s="9" t="s">
+      <c r="BC2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="BD2" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BE2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BF2" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BC2" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BG2" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BH2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BI2" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="BG2" s="10" t="s">
+      <c r="BJ2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="BH2" s="10" t="s">
+      <c r="BK2" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BL2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="BI2" s="10" t="s">
+      <c r="BM2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BJ2" s="10" t="s">
+      <c r="BN2" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="BK2" s="10" t="s">
+      <c r="BO2" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="BL2" s="10" t="s">
+      <c r="BP2" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BQ2" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="BM2" s="10" t="s">
+      <c r="BR2" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="BN2" s="10" t="s">
+      <c r="BS2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="BO2" s="10" t="s">
+      <c r="BT2" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="BP2" s="10" t="s">
+      <c r="BU2" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="BQ2" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="BR2" s="10" t="s">
+      <c r="BV2" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="BS2" s="10" t="s">
+      <c r="BW2" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="BT2" s="10" t="s">
+      <c r="BX2" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="BU2" s="10" t="s">
+      <c r="BY2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="BV2" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW2" s="10" t="s">
+      <c r="BZ2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="BX2" s="10" t="s">
+      <c r="CA2" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="BY2" s="10" t="s">
+      <c r="CB2" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="BZ2" s="11" t="s">
+      <c r="CD2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="CA2" s="11" t="s">
+      <c r="CE2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="CB2" s="11" t="s">
+      <c r="CF2" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="CC2" s="11" t="s">
+      <c r="CG2" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH2" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="CD2" s="11" t="s">
+      <c r="CI2" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="CE2" s="11" t="s">
+      <c r="CJ2" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="CF2" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="CG2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH2" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="CI2" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="CJ2" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="CK2" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="CL2" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="CM2" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="CN2" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="CO2" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="CP2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="CQ2" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="CR2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>238</v>
-      </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -8716,7 +8513,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3">
         <v>45296</v>
@@ -8761,15 +8558,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -8778,7 +8575,7 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3">
         <v>45296</v>
@@ -8823,15 +8620,15 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>240</v>
+    <row r="5" spans="1:88" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8840,7 +8637,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3">
         <v>45300</v>
@@ -8860,15 +8657,15 @@
       <c r="L5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8877,7 +8674,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3">
         <v>45296</v>
@@ -8919,15 +8716,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8936,7 +8733,7 @@
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3">
         <v>45296</v>
@@ -8969,15 +8766,15 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8986,7 +8783,7 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3">
         <v>45296</v>
@@ -9017,15 +8814,15 @@
       </c>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9034,7 +8831,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3">
         <v>45297</v>
@@ -9079,15 +8876,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9096,7 +8893,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3">
         <v>45299</v>
@@ -9141,15 +8938,15 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -9158,7 +8955,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3">
         <v>45296</v>
@@ -9206,7 +9003,7 @@
         <v>45298</v>
       </c>
       <c r="V11" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="W11">
         <v>-7</v>
@@ -9214,26 +9011,26 @@
       <c r="X11">
         <v>-7</v>
       </c>
-      <c r="Y11" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>189</v>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -9245,186 +9042,162 @@
         <v>0</v>
       </c>
       <c r="AI11">
+        <v>30</v>
+      </c>
+      <c r="AJ11">
+        <v>30</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>45300</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN11">
+        <v>-37</v>
+      </c>
+      <c r="AO11">
+        <v>-12</v>
+      </c>
+      <c r="AP11">
+        <v>4</v>
+      </c>
+      <c r="AQ11">
+        <v>4</v>
+      </c>
+      <c r="AR11">
+        <v>4.25</v>
+      </c>
+      <c r="AS11">
+        <v>2</v>
+      </c>
+      <c r="AT11">
+        <v>3.4375</v>
+      </c>
+      <c r="AU11">
+        <v>2</v>
+      </c>
+      <c r="AV11">
+        <v>0.8</v>
+      </c>
+      <c r="AW11">
+        <v>0.25</v>
+      </c>
+      <c r="AX11">
+        <v>0.25</v>
+      </c>
+      <c r="AY11">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BA11">
+        <v>25</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>45305</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>180</v>
+      </c>
+      <c r="BE11">
+        <v>-16</v>
+      </c>
+      <c r="BF11">
+        <v>-19</v>
+      </c>
+      <c r="BG11">
         <v>0</v>
       </c>
-      <c r="AJ11">
+      <c r="BH11">
         <v>0</v>
       </c>
-      <c r="AK11">
-        <v>30</v>
-      </c>
-      <c r="AL11">
-        <v>30</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>45300</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP11">
-        <v>-37</v>
-      </c>
-      <c r="AQ11">
-        <v>-12</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT11">
+      <c r="BI11">
+        <v>6</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>1.5</v>
+      </c>
+      <c r="BL11">
+        <v>1</v>
+      </c>
+      <c r="BM11">
+        <v>0.6</v>
+      </c>
+      <c r="BN11">
+        <v>0.75</v>
+      </c>
+      <c r="BO11">
+        <v>0.5</v>
+      </c>
+      <c r="BP11">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="BQ11">
+        <v>21</v>
+      </c>
+      <c r="BR11">
+        <v>18</v>
+      </c>
+      <c r="BT11" s="3">
+        <v>45307</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV11">
+        <v>-17</v>
+      </c>
+      <c r="BW11">
+        <v>-17</v>
+      </c>
+      <c r="BX11">
+        <v>2</v>
+      </c>
+      <c r="BY11">
+        <v>2</v>
+      </c>
+      <c r="BZ11">
         <v>4</v>
       </c>
-      <c r="AU11">
-        <v>4</v>
-      </c>
-      <c r="AV11">
-        <v>4.25</v>
-      </c>
-      <c r="AW11">
+      <c r="CA11">
         <v>2</v>
       </c>
-      <c r="AX11">
-        <v>3.4375</v>
-      </c>
-      <c r="AY11">
-        <v>2</v>
-      </c>
-      <c r="AZ11">
-        <v>0.8</v>
-      </c>
-      <c r="BA11">
-        <v>0.25</v>
-      </c>
-      <c r="BB11">
-        <v>0.25</v>
-      </c>
-      <c r="BC11">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="BE11">
-        <v>25</v>
-      </c>
-      <c r="BG11" s="3">
-        <v>45305</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>194</v>
-      </c>
-      <c r="BI11">
-        <v>-16</v>
-      </c>
-      <c r="BJ11">
-        <v>-19</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>189</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM11">
+      <c r="CB11">
+        <v>2.5</v>
+      </c>
+      <c r="CC11">
         <v>0</v>
       </c>
-      <c r="BN11">
+      <c r="CD11">
         <v>0</v>
       </c>
-      <c r="BO11">
-        <v>6</v>
-      </c>
-      <c r="BP11">
+      <c r="CE11">
         <v>0</v>
       </c>
-      <c r="BQ11">
-        <v>1.5</v>
-      </c>
-      <c r="BR11">
-        <v>1</v>
-      </c>
-      <c r="BS11">
-        <v>0.6</v>
-      </c>
-      <c r="BT11">
-        <v>0.75</v>
-      </c>
-      <c r="BU11">
-        <v>0.5</v>
-      </c>
-      <c r="BV11">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="BW11">
-        <v>21</v>
-      </c>
-      <c r="BX11">
-        <v>18</v>
-      </c>
-      <c r="BZ11" s="3">
-        <v>45307</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>192</v>
-      </c>
-      <c r="CB11">
-        <v>-17</v>
-      </c>
-      <c r="CC11">
-        <v>-17</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>189</v>
-      </c>
       <c r="CF11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CH11">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="CI11">
-        <v>2</v>
-      </c>
-      <c r="CJ11">
-        <v>2.5</v>
-      </c>
-      <c r="CK11">
-        <v>0</v>
-      </c>
-      <c r="CL11">
-        <v>0</v>
-      </c>
-      <c r="CM11">
-        <v>0</v>
-      </c>
-      <c r="CN11">
-        <v>0</v>
-      </c>
-      <c r="CO11">
-        <v>0</v>
-      </c>
-      <c r="CP11">
         <v>20</v>
       </c>
-      <c r="CQ11">
-        <v>20</v>
-      </c>
     </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9433,7 +9206,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3">
         <v>45296</v>
@@ -9481,7 +9254,7 @@
         <v>45300</v>
       </c>
       <c r="V12" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -9489,220 +9262,196 @@
       <c r="X12">
         <v>-6</v>
       </c>
-      <c r="Y12" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>197</v>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>3.4</v>
       </c>
       <c r="AA12">
+        <v>5.5</v>
+      </c>
+      <c r="AB12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC12">
+        <v>4.4375</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF12">
+        <v>-1.25</v>
+      </c>
+      <c r="AG12">
+        <v>-0.25</v>
+      </c>
+      <c r="AH12">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AI12">
+        <v>11</v>
+      </c>
+      <c r="AJ12">
+        <v>28</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>45304</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN12">
+        <v>-1</v>
+      </c>
+      <c r="AO12">
+        <v>-7</v>
+      </c>
+      <c r="AP12">
         <v>5</v>
       </c>
-      <c r="AB12">
-        <v>3.4</v>
-      </c>
-      <c r="AC12">
+      <c r="AQ12">
+        <v>3.6</v>
+      </c>
+      <c r="AR12">
+        <v>6</v>
+      </c>
+      <c r="AS12">
+        <v>5.4</v>
+      </c>
+      <c r="AT12">
+        <v>4.9375</v>
+      </c>
+      <c r="AU12">
+        <v>2</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>-0.5</v>
+      </c>
+      <c r="AY12">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AZ12">
+        <v>10</v>
+      </c>
+      <c r="BA12">
+        <v>27</v>
+      </c>
+      <c r="BC12" s="3">
+        <v>45307</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>178</v>
+      </c>
+      <c r="BE12">
+        <v>2</v>
+      </c>
+      <c r="BF12">
+        <v>5</v>
+      </c>
+      <c r="BG12">
         <v>5.5</v>
       </c>
-      <c r="AD12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AE12">
-        <v>4.4375</v>
-      </c>
-      <c r="AF12">
-        <v>2</v>
-      </c>
-      <c r="AG12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AH12">
-        <v>-1.25</v>
-      </c>
-      <c r="AI12">
-        <v>-0.25</v>
-      </c>
-      <c r="AJ12">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="AK12">
-        <v>11</v>
-      </c>
-      <c r="AL12">
-        <v>28</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>45304</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP12">
-        <v>-1</v>
-      </c>
-      <c r="AQ12">
-        <v>-7</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>199</v>
-      </c>
-      <c r="AT12">
-        <v>5</v>
-      </c>
-      <c r="AU12">
-        <v>3.6</v>
-      </c>
-      <c r="AV12">
-        <v>6</v>
-      </c>
-      <c r="AW12">
-        <v>5.4</v>
-      </c>
-      <c r="AX12">
-        <v>4.9375</v>
-      </c>
-      <c r="AY12">
-        <v>2</v>
-      </c>
-      <c r="AZ12">
-        <v>1</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>-0.5</v>
-      </c>
-      <c r="BC12">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="BD12">
-        <v>10</v>
-      </c>
-      <c r="BE12">
-        <v>27</v>
-      </c>
-      <c r="BG12" s="3">
-        <v>45307</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>190</v>
+      <c r="BH12">
+        <v>4.2</v>
       </c>
       <c r="BI12">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="BJ12">
         <v>5</v>
       </c>
-      <c r="BK12" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>200</v>
+      <c r="BK12">
+        <v>4.9375</v>
+      </c>
+      <c r="BL12">
+        <v>3</v>
       </c>
       <c r="BM12">
+        <v>1.2</v>
+      </c>
+      <c r="BN12">
+        <v>0.25</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BQ12">
+        <v>13</v>
+      </c>
+      <c r="BR12">
+        <v>39</v>
+      </c>
+      <c r="BT12" s="3">
+        <v>45308</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV12">
+        <v>1</v>
+      </c>
+      <c r="BW12">
+        <v>6</v>
+      </c>
+      <c r="BX12">
         <v>5.5</v>
       </c>
-      <c r="BN12">
-        <v>4.2</v>
-      </c>
-      <c r="BO12">
-        <v>5.5</v>
-      </c>
-      <c r="BP12">
+      <c r="BY12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BZ12">
+        <v>6</v>
+      </c>
+      <c r="CA12">
         <v>5</v>
       </c>
-      <c r="BQ12">
-        <v>4.9375</v>
-      </c>
-      <c r="BR12">
-        <v>3</v>
-      </c>
-      <c r="BS12">
-        <v>1.2</v>
-      </c>
-      <c r="BT12">
-        <v>0.25</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
-      <c r="BV12">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="BW12">
-        <v>13</v>
-      </c>
-      <c r="BX12">
-        <v>39</v>
-      </c>
-      <c r="BZ12" s="3">
-        <v>45308</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>192</v>
-      </c>
       <c r="CB12">
-        <v>1</v>
+        <v>5.125</v>
       </c>
       <c r="CC12">
-        <v>6</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>193</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>201</v>
+        <v>2</v>
+      </c>
+      <c r="CD12">
+        <v>1.6</v>
+      </c>
+      <c r="CE12">
+        <v>-0.75</v>
       </c>
       <c r="CF12">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="CG12">
-        <v>4.4000000000000004</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="CH12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="CI12">
-        <v>5</v>
-      </c>
-      <c r="CJ12">
-        <v>5.125</v>
-      </c>
-      <c r="CK12">
-        <v>2</v>
-      </c>
-      <c r="CL12">
-        <v>1.6</v>
-      </c>
-      <c r="CM12">
-        <v>-0.75</v>
-      </c>
-      <c r="CN12">
-        <v>0.5</v>
-      </c>
-      <c r="CO12">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="CP12">
-        <v>12</v>
-      </c>
-      <c r="CQ12">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9711,7 +9460,7 @@
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3">
         <v>45303</v>
@@ -9743,19 +9492,19 @@
         <v>4.166666666666667</v>
       </c>
       <c r="U13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BZ13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BT13" s="3"/>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -9764,7 +9513,7 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="3">
         <v>45296</v>
@@ -9784,19 +9533,19 @@
       <c r="L14" s="3"/>
       <c r="P14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BZ14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BT14" s="3"/>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
         <v>81</v>
       </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -9805,7 +9554,7 @@
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="3">
         <v>45297</v>
@@ -9825,19 +9574,19 @@
       <c r="L15" s="3"/>
       <c r="P15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BZ15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BT15" s="3"/>
     </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -9846,7 +9595,7 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3">
         <v>45296</v>
@@ -9866,19 +9615,19 @@
       <c r="L16" s="3"/>
       <c r="P16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BZ16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BT16" s="3"/>
     </row>
-    <row r="17" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -9887,7 +9636,7 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="3">
         <v>45296</v>
@@ -9935,7 +9684,7 @@
         <v>45297</v>
       </c>
       <c r="V17" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -9943,214 +9692,196 @@
       <c r="X17">
         <v>-1</v>
       </c>
-      <c r="Y17" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>189</v>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+      <c r="Z17">
+        <v>4.2</v>
       </c>
       <c r="AA17">
+        <v>5.5</v>
+      </c>
+      <c r="AB17">
+        <v>2.8</v>
+      </c>
+      <c r="AC17">
+        <v>4.0625</v>
+      </c>
+      <c r="AD17">
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <v>1.2</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>-0.75</v>
+      </c>
+      <c r="AH17">
+        <v>0.5</v>
+      </c>
+      <c r="AI17">
+        <v>14</v>
+      </c>
+      <c r="AJ17">
+        <v>33</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>45300</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>-9</v>
+      </c>
+      <c r="AP17">
         <v>4</v>
       </c>
-      <c r="AB17">
+      <c r="AQ17">
+        <v>4</v>
+      </c>
+      <c r="AR17">
+        <v>5.75</v>
+      </c>
+      <c r="AS17">
+        <v>3.6</v>
+      </c>
+      <c r="AT17">
+        <v>4.3125</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>0.2</v>
+      </c>
+      <c r="AW17">
+        <v>-1.5</v>
+      </c>
+      <c r="AX17">
+        <v>-0.75</v>
+      </c>
+      <c r="AY17">
+        <v>-0.42857142857142855</v>
+      </c>
+      <c r="AZ17">
+        <v>14</v>
+      </c>
+      <c r="BA17">
+        <v>25</v>
+      </c>
+      <c r="BC17" s="3">
+        <v>45304</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>179</v>
+      </c>
+      <c r="BE17">
+        <v>2</v>
+      </c>
+      <c r="BF17">
+        <v>-8</v>
+      </c>
+      <c r="BG17">
+        <v>5</v>
+      </c>
+      <c r="BH17">
+        <v>5</v>
+      </c>
+      <c r="BI17">
+        <v>5.75</v>
+      </c>
+      <c r="BJ17">
+        <v>3.6</v>
+      </c>
+      <c r="BK17">
+        <v>4.75</v>
+      </c>
+      <c r="BL17">
+        <v>1</v>
+      </c>
+      <c r="BM17">
+        <v>1.8</v>
+      </c>
+      <c r="BN17">
+        <v>-0.75</v>
+      </c>
+      <c r="BO17">
+        <v>-0.5</v>
+      </c>
+      <c r="BP17">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="BQ17">
+        <v>15</v>
+      </c>
+      <c r="BR17">
+        <v>26</v>
+      </c>
+      <c r="BT17" s="3">
+        <v>45307</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV17">
+        <v>2</v>
+      </c>
+      <c r="BW17">
+        <v>-3</v>
+      </c>
+      <c r="BX17">
+        <v>5</v>
+      </c>
+      <c r="BY17">
+        <v>4.8</v>
+      </c>
+      <c r="BZ17">
+        <v>5.75</v>
+      </c>
+      <c r="CA17">
         <v>4.2</v>
       </c>
-      <c r="AC17">
-        <v>5.5</v>
-      </c>
-      <c r="AD17">
-        <v>2.8</v>
-      </c>
-      <c r="AE17">
-        <v>4.0625</v>
-      </c>
-      <c r="AF17">
-        <v>2</v>
-      </c>
-      <c r="AG17">
-        <v>1.2</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
+      <c r="CB17">
+        <v>4.875</v>
+      </c>
+      <c r="CC17">
+        <v>1</v>
+      </c>
+      <c r="CD17">
+        <v>1.6</v>
+      </c>
+      <c r="CE17">
+        <v>-0.25</v>
+      </c>
+      <c r="CF17">
         <v>-0.75</v>
       </c>
-      <c r="AJ17">
-        <v>0.5</v>
-      </c>
-      <c r="AK17">
-        <v>14</v>
-      </c>
-      <c r="AL17">
-        <v>33</v>
-      </c>
-      <c r="AN17" s="3">
-        <v>45300</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AP17">
-        <v>1</v>
-      </c>
-      <c r="AQ17">
-        <v>-9</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT17">
-        <v>4</v>
-      </c>
-      <c r="AU17">
-        <v>4</v>
-      </c>
-      <c r="AV17">
-        <v>5.75</v>
-      </c>
-      <c r="AW17">
-        <v>3.6</v>
-      </c>
-      <c r="AX17">
-        <v>4.3125</v>
-      </c>
-      <c r="AY17">
-        <v>1</v>
-      </c>
-      <c r="AZ17">
-        <v>0.2</v>
-      </c>
-      <c r="BA17">
-        <v>-1.5</v>
-      </c>
-      <c r="BB17">
-        <v>-0.75</v>
-      </c>
-      <c r="BC17">
-        <v>-0.42857142857142855</v>
-      </c>
-      <c r="BD17">
-        <v>14</v>
-      </c>
-      <c r="BE17">
-        <v>25</v>
-      </c>
-      <c r="BG17" s="3">
-        <v>45304</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>192</v>
-      </c>
-      <c r="BI17">
-        <v>2</v>
-      </c>
-      <c r="BJ17">
-        <v>-8</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM17">
-        <v>5</v>
-      </c>
-      <c r="BN17">
-        <v>5</v>
-      </c>
-      <c r="BO17">
-        <v>5.75</v>
-      </c>
-      <c r="BP17">
-        <v>3.6</v>
-      </c>
-      <c r="BQ17">
-        <v>4.75</v>
-      </c>
-      <c r="BR17">
-        <v>1</v>
-      </c>
-      <c r="BS17">
-        <v>1.8</v>
-      </c>
-      <c r="BT17">
-        <v>-0.75</v>
-      </c>
-      <c r="BU17">
-        <v>-0.5</v>
-      </c>
-      <c r="BV17">
+      <c r="CG17">
         <v>0.35714285714285715</v>
       </c>
-      <c r="BW17">
+      <c r="CH17">
         <v>15</v>
       </c>
-      <c r="BX17">
-        <v>26</v>
-      </c>
-      <c r="BZ17" s="3">
-        <v>45307</v>
-      </c>
-      <c r="CA17" t="s">
-        <v>192</v>
-      </c>
-      <c r="CB17">
-        <v>2</v>
-      </c>
-      <c r="CC17">
-        <v>-3</v>
-      </c>
-      <c r="CF17">
-        <v>5</v>
-      </c>
-      <c r="CG17">
-        <v>4.8</v>
-      </c>
-      <c r="CH17">
-        <v>5.75</v>
-      </c>
       <c r="CI17">
-        <v>4.2</v>
-      </c>
-      <c r="CJ17">
-        <v>4.875</v>
-      </c>
-      <c r="CK17">
-        <v>1</v>
-      </c>
-      <c r="CL17">
-        <v>1.6</v>
-      </c>
-      <c r="CM17">
-        <v>-0.25</v>
-      </c>
-      <c r="CN17">
-        <v>-0.75</v>
-      </c>
-      <c r="CO17">
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="CP17">
-        <v>15</v>
-      </c>
-      <c r="CQ17">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -10159,7 +9890,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3">
         <v>45299</v>
@@ -10201,7 +9932,7 @@
         <v>45300</v>
       </c>
       <c r="V18" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="W18">
         <v>-7</v>
@@ -10209,167 +9940,149 @@
       <c r="X18">
         <v>4</v>
       </c>
-      <c r="Y18" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>189</v>
+      <c r="Y18">
+        <v>4.5</v>
+      </c>
+      <c r="Z18">
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA18">
+        <v>4.75</v>
+      </c>
+      <c r="AB18">
+        <v>3.8</v>
+      </c>
+      <c r="AC18">
+        <v>4.375</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1.6</v>
+      </c>
+      <c r="AF18">
+        <v>-1.25</v>
+      </c>
+      <c r="AG18">
+        <v>0.25</v>
+      </c>
+      <c r="AH18">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AI18">
+        <v>17</v>
+      </c>
+      <c r="AJ18">
+        <v>41</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>45305</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN18">
+        <v>-7</v>
+      </c>
+      <c r="AO18">
+        <v>-6</v>
+      </c>
+      <c r="AP18">
         <v>4.5</v>
       </c>
-      <c r="AB18">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AC18">
-        <v>4.75</v>
-      </c>
-      <c r="AD18">
-        <v>3.8</v>
-      </c>
-      <c r="AE18">
-        <v>4.375</v>
-      </c>
-      <c r="AF18">
+      <c r="AQ18">
+        <v>3.6</v>
+      </c>
+      <c r="AR18">
+        <v>4.25</v>
+      </c>
+      <c r="AS18">
+        <v>4.2</v>
+      </c>
+      <c r="AT18">
+        <v>4.0625</v>
+      </c>
+      <c r="AU18">
         <v>1</v>
       </c>
-      <c r="AG18">
-        <v>1.6</v>
-      </c>
-      <c r="AH18">
-        <v>-1.25</v>
-      </c>
-      <c r="AI18">
+      <c r="AV18">
+        <v>0.8</v>
+      </c>
+      <c r="AW18">
+        <v>-1.5</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="AZ18">
+        <v>17</v>
+      </c>
+      <c r="BA18">
+        <v>31</v>
+      </c>
+      <c r="BC18" s="3">
+        <v>45307</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE18">
+        <v>-1</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>4.5</v>
+      </c>
+      <c r="BH18">
+        <v>3.4</v>
+      </c>
+      <c r="BI18">
+        <v>4</v>
+      </c>
+      <c r="BJ18">
+        <v>4</v>
+      </c>
+      <c r="BK18">
+        <v>3.875</v>
+      </c>
+      <c r="BL18">
+        <v>3</v>
+      </c>
+      <c r="BM18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN18">
         <v>0.25</v>
       </c>
-      <c r="AJ18">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="AK18">
-        <v>17</v>
-      </c>
-      <c r="AL18">
-        <v>41</v>
-      </c>
-      <c r="AN18" s="3">
-        <v>45305</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP18">
-        <v>-7</v>
-      </c>
-      <c r="AQ18">
-        <v>-6</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>205</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT18">
-        <v>4.5</v>
-      </c>
-      <c r="AU18">
-        <v>3.6</v>
-      </c>
-      <c r="AV18">
-        <v>4.25</v>
-      </c>
-      <c r="AW18">
-        <v>4.2</v>
-      </c>
-      <c r="AX18">
-        <v>4.0625</v>
-      </c>
-      <c r="AY18">
+      <c r="BO18">
         <v>1</v>
       </c>
-      <c r="AZ18">
-        <v>0.8</v>
-      </c>
-      <c r="BA18">
-        <v>-1.5</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>-0.14285714285714285</v>
-      </c>
-      <c r="BD18">
-        <v>17</v>
-      </c>
-      <c r="BE18">
-        <v>31</v>
-      </c>
-      <c r="BG18" s="3">
-        <v>45307</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>204</v>
-      </c>
-      <c r="BI18">
-        <v>-1</v>
-      </c>
-      <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>206</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM18">
-        <v>4.5</v>
-      </c>
-      <c r="BN18">
-        <v>3.4</v>
-      </c>
-      <c r="BO18">
-        <v>4</v>
-      </c>
       <c r="BP18">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BQ18">
-        <v>3.875</v>
+        <v>23</v>
       </c>
       <c r="BR18">
-        <v>3</v>
-      </c>
-      <c r="BS18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BT18">
-        <v>0.25</v>
-      </c>
-      <c r="BU18">
-        <v>1</v>
-      </c>
-      <c r="BV18">
-        <v>1.5</v>
-      </c>
-      <c r="BW18">
-        <v>23</v>
-      </c>
-      <c r="BX18">
         <v>37</v>
       </c>
-      <c r="BZ18" s="3"/>
+      <c r="BT18" s="3"/>
     </row>
-    <row r="19" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -10378,7 +10091,7 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="3">
         <v>45296</v>
@@ -10426,7 +10139,7 @@
         <v>45298</v>
       </c>
       <c r="V19" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -10434,196 +10147,172 @@
       <c r="X19">
         <v>-4</v>
       </c>
-      <c r="Y19" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>207</v>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+      <c r="Z19">
+        <v>2.2000000000000002</v>
       </c>
       <c r="AA19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AB19">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>3.75</v>
+        <v>2.4375</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE19">
-        <v>2.4375</v>
+        <v>-0.4</v>
       </c>
       <c r="AF19">
         <v>-1</v>
       </c>
       <c r="AG19">
-        <v>-0.4</v>
+        <v>-0.75</v>
       </c>
       <c r="AH19">
+        <v>-0.7142857142857143</v>
+      </c>
+      <c r="AI19">
+        <v>16</v>
+      </c>
+      <c r="AJ19">
+        <v>27</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>45300</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN19">
+        <v>-2</v>
+      </c>
+      <c r="AO19">
+        <v>2</v>
+      </c>
+      <c r="AP19">
+        <v>4</v>
+      </c>
+      <c r="AQ19">
+        <v>4.2</v>
+      </c>
+      <c r="AR19">
+        <v>5</v>
+      </c>
+      <c r="AS19">
+        <v>3.6</v>
+      </c>
+      <c r="AT19">
+        <v>4.1875</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>0.4</v>
+      </c>
+      <c r="AW19">
+        <v>0.25</v>
+      </c>
+      <c r="AX19">
+        <v>0.25</v>
+      </c>
+      <c r="AY19">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AZ19">
+        <v>13</v>
+      </c>
+      <c r="BA19">
+        <v>33</v>
+      </c>
+      <c r="BC19" s="3">
+        <v>45305</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE19">
+        <v>-5</v>
+      </c>
+      <c r="BF19">
+        <v>9</v>
+      </c>
+      <c r="BG19">
+        <v>3.5</v>
+      </c>
+      <c r="BH19">
+        <v>2.6</v>
+      </c>
+      <c r="BI19">
+        <v>4.5</v>
+      </c>
+      <c r="BJ19">
+        <v>1</v>
+      </c>
+      <c r="BK19">
+        <v>2.6875</v>
+      </c>
+      <c r="BL19">
+        <v>-2</v>
+      </c>
+      <c r="BM19">
+        <v>-1.2</v>
+      </c>
+      <c r="BN19">
+        <v>-0.75</v>
+      </c>
+      <c r="BO19">
         <v>-1</v>
       </c>
-      <c r="AI19">
-        <v>-0.75</v>
-      </c>
-      <c r="AJ19">
-        <v>-0.7142857142857143</v>
-      </c>
-      <c r="AK19">
-        <v>16</v>
-      </c>
-      <c r="AL19">
-        <v>27</v>
-      </c>
-      <c r="AN19" s="3">
-        <v>45300</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP19">
-        <v>-2</v>
-      </c>
-      <c r="AQ19">
-        <v>2</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT19">
-        <v>4</v>
-      </c>
-      <c r="AU19">
-        <v>4.2</v>
-      </c>
-      <c r="AV19">
-        <v>5</v>
-      </c>
-      <c r="AW19">
-        <v>3.6</v>
-      </c>
-      <c r="AX19">
-        <v>4.1875</v>
-      </c>
-      <c r="AY19">
-        <v>1</v>
-      </c>
-      <c r="AZ19">
-        <v>0.4</v>
-      </c>
-      <c r="BA19">
-        <v>0.25</v>
-      </c>
-      <c r="BB19">
-        <v>0.25</v>
-      </c>
-      <c r="BC19">
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="BD19">
-        <v>13</v>
-      </c>
-      <c r="BE19">
-        <v>33</v>
-      </c>
-      <c r="BG19" s="3">
-        <v>45305</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>208</v>
-      </c>
-      <c r="BI19">
+      <c r="BP19">
+        <v>-1.0714285714285714</v>
+      </c>
+      <c r="BQ19">
+        <v>10</v>
+      </c>
+      <c r="BR19">
+        <v>40</v>
+      </c>
+      <c r="BT19" s="3">
+        <v>45307</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV19">
         <v>-5</v>
-      </c>
-      <c r="BJ19">
-        <v>9</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>210</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>211</v>
-      </c>
-      <c r="BM19">
-        <v>3.5</v>
-      </c>
-      <c r="BN19">
-        <v>2.6</v>
-      </c>
-      <c r="BO19">
-        <v>4.5</v>
-      </c>
-      <c r="BP19">
-        <v>1</v>
-      </c>
-      <c r="BQ19">
-        <v>2.6875</v>
-      </c>
-      <c r="BR19">
-        <v>-2</v>
-      </c>
-      <c r="BS19">
-        <v>-1.2</v>
-      </c>
-      <c r="BT19">
-        <v>-0.75</v>
-      </c>
-      <c r="BU19">
-        <v>-1</v>
-      </c>
-      <c r="BV19">
-        <v>-1.0714285714285714</v>
       </c>
       <c r="BW19">
         <v>10</v>
       </c>
-      <c r="BX19">
-        <v>40</v>
-      </c>
-      <c r="BZ19" s="3">
-        <v>45307</v>
-      </c>
-      <c r="CA19" t="s">
-        <v>192</v>
-      </c>
       <c r="CB19">
-        <v>-5</v>
-      </c>
-      <c r="CC19">
+        <v>4.0625</v>
+      </c>
+      <c r="CH19">
         <v>10</v>
       </c>
-      <c r="CD19" t="s">
-        <v>193</v>
-      </c>
-      <c r="CE19" t="s">
-        <v>212</v>
-      </c>
-      <c r="CJ19">
-        <v>4.0625</v>
-      </c>
-      <c r="CP19">
-        <v>10</v>
-      </c>
-      <c r="CQ19">
+      <c r="CI19">
         <v>41</v>
       </c>
-      <c r="CR19" t="s">
-        <v>213</v>
+      <c r="CJ19" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -10632,7 +10321,7 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="3">
         <v>45296</v>
@@ -10680,7 +10369,7 @@
         <v>45297</v>
       </c>
       <c r="V20" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="W20">
         <v>-3</v>
@@ -10688,223 +10377,199 @@
       <c r="X20">
         <v>-3</v>
       </c>
-      <c r="Y20" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>215</v>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+      <c r="Z20">
+        <v>4.8</v>
       </c>
       <c r="AA20">
+        <v>4.25</v>
+      </c>
+      <c r="AB20">
+        <v>2.6</v>
+      </c>
+      <c r="AC20">
+        <v>4</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1.2</v>
+      </c>
+      <c r="AF20">
+        <v>-2</v>
+      </c>
+      <c r="AG20">
+        <v>-1</v>
+      </c>
+      <c r="AH20">
+        <v>-0.5</v>
+      </c>
+      <c r="AI20">
+        <v>10</v>
+      </c>
+      <c r="AJ20">
+        <v>32</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>45300</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN20">
+        <v>-2</v>
+      </c>
+      <c r="AO20">
+        <v>-14</v>
+      </c>
+      <c r="AP20">
+        <v>6</v>
+      </c>
+      <c r="AQ20">
+        <v>4.2</v>
+      </c>
+      <c r="AR20">
         <v>5</v>
       </c>
-      <c r="AB20">
-        <v>4.8</v>
-      </c>
-      <c r="AC20">
-        <v>4.25</v>
-      </c>
-      <c r="AD20">
+      <c r="AS20">
+        <v>2</v>
+      </c>
+      <c r="AT20">
+        <v>3.9375</v>
+      </c>
+      <c r="AU20">
+        <v>-2</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
+        <v>-1.75</v>
+      </c>
+      <c r="AX20">
+        <v>-2.75</v>
+      </c>
+      <c r="AY20">
+        <v>-1.0714285714285714</v>
+      </c>
+      <c r="AZ20">
+        <v>11</v>
+      </c>
+      <c r="BA20">
+        <v>21</v>
+      </c>
+      <c r="BC20" s="3">
+        <v>45305</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE20">
+        <v>-1</v>
+      </c>
+      <c r="BF20">
+        <v>-14</v>
+      </c>
+      <c r="BG20">
+        <v>6</v>
+      </c>
+      <c r="BH20">
         <v>2.6</v>
       </c>
-      <c r="AE20">
+      <c r="BI20">
+        <v>5.75</v>
+      </c>
+      <c r="BJ20">
+        <v>2.6</v>
+      </c>
+      <c r="BK20">
+        <v>3.8125</v>
+      </c>
+      <c r="BL20">
+        <v>1</v>
+      </c>
+      <c r="BM20">
+        <v>1.2</v>
+      </c>
+      <c r="BN20">
+        <v>-2</v>
+      </c>
+      <c r="BO20">
+        <v>-0.25</v>
+      </c>
+      <c r="BP20">
+        <v>-7.1428571428571425E-2</v>
+      </c>
+      <c r="BQ20">
+        <v>12</v>
+      </c>
+      <c r="BR20">
+        <v>21</v>
+      </c>
+      <c r="BT20" s="3">
+        <v>45307</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV20">
+        <v>-2</v>
+      </c>
+      <c r="BW20">
+        <v>-18</v>
+      </c>
+      <c r="BX20">
+        <v>6</v>
+      </c>
+      <c r="BY20">
+        <v>3.6</v>
+      </c>
+      <c r="BZ20">
+        <v>6</v>
+      </c>
+      <c r="CA20">
         <v>4</v>
       </c>
-      <c r="AF20">
+      <c r="CB20">
+        <v>4.625</v>
+      </c>
+      <c r="CC20">
         <v>1</v>
       </c>
-      <c r="AG20">
-        <v>1.2</v>
-      </c>
-      <c r="AH20">
+      <c r="CD20">
+        <v>1.8</v>
+      </c>
+      <c r="CE20">
         <v>-2</v>
       </c>
-      <c r="AI20">
-        <v>-1</v>
-      </c>
-      <c r="AJ20">
-        <v>-0.5</v>
-      </c>
-      <c r="AK20">
-        <v>10</v>
-      </c>
-      <c r="AL20">
-        <v>32</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN20" s="3">
-        <v>45300</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>202</v>
-      </c>
-      <c r="AP20">
-        <v>-2</v>
-      </c>
-      <c r="AQ20">
-        <v>-14</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>217</v>
-      </c>
-      <c r="AT20">
-        <v>6</v>
-      </c>
-      <c r="AU20">
-        <v>4.2</v>
-      </c>
-      <c r="AV20">
-        <v>5</v>
-      </c>
-      <c r="AW20">
-        <v>2</v>
-      </c>
-      <c r="AX20">
-        <v>3.9375</v>
-      </c>
-      <c r="AY20">
-        <v>-2</v>
-      </c>
-      <c r="AZ20">
-        <v>1</v>
-      </c>
-      <c r="BA20">
-        <v>-1.75</v>
-      </c>
-      <c r="BB20">
-        <v>-2.75</v>
-      </c>
-      <c r="BC20">
-        <v>-1.0714285714285714</v>
-      </c>
-      <c r="BD20">
+      <c r="CF20">
+        <v>0.5</v>
+      </c>
+      <c r="CG20">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CH20">
         <v>11</v>
       </c>
-      <c r="BE20">
-        <v>21</v>
-      </c>
-      <c r="BG20" s="3">
-        <v>45305</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>204</v>
-      </c>
-      <c r="BI20">
-        <v>-1</v>
-      </c>
-      <c r="BJ20">
-        <v>-14</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM20">
-        <v>6</v>
-      </c>
-      <c r="BN20">
-        <v>2.6</v>
-      </c>
-      <c r="BO20">
-        <v>5.75</v>
-      </c>
-      <c r="BP20">
-        <v>2.6</v>
-      </c>
-      <c r="BQ20">
-        <v>3.8125</v>
-      </c>
-      <c r="BR20">
-        <v>1</v>
-      </c>
-      <c r="BS20">
-        <v>1.2</v>
-      </c>
-      <c r="BT20">
-        <v>-2</v>
-      </c>
-      <c r="BU20">
-        <v>-0.25</v>
-      </c>
-      <c r="BV20">
-        <v>-7.1428571428571425E-2</v>
-      </c>
-      <c r="BW20">
-        <v>12</v>
-      </c>
-      <c r="BX20">
-        <v>21</v>
-      </c>
-      <c r="BZ20" s="3">
-        <v>45307</v>
-      </c>
-      <c r="CA20" t="s">
-        <v>192</v>
-      </c>
-      <c r="CB20">
-        <v>-2</v>
-      </c>
-      <c r="CC20">
-        <v>-18</v>
-      </c>
-      <c r="CD20" t="s">
-        <v>193</v>
-      </c>
-      <c r="CE20" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF20">
-        <v>6</v>
-      </c>
-      <c r="CG20">
-        <v>3.6</v>
-      </c>
-      <c r="CH20">
-        <v>6</v>
-      </c>
       <c r="CI20">
-        <v>4</v>
-      </c>
-      <c r="CJ20">
-        <v>4.625</v>
-      </c>
-      <c r="CK20">
-        <v>1</v>
-      </c>
-      <c r="CL20">
-        <v>1.8</v>
-      </c>
-      <c r="CM20">
-        <v>-2</v>
-      </c>
-      <c r="CN20">
-        <v>0.5</v>
-      </c>
-      <c r="CO20">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="CP20">
-        <v>11</v>
-      </c>
-      <c r="CQ20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -10913,7 +10578,7 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="3">
         <v>45297</v>
@@ -10961,7 +10626,7 @@
         <v>45299</v>
       </c>
       <c r="V21" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="W21">
         <v>1</v>
@@ -10969,114 +10634,102 @@
       <c r="X21">
         <v>-5</v>
       </c>
-      <c r="Y21" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>189</v>
+      <c r="Y21">
+        <v>4.5</v>
+      </c>
+      <c r="Z21">
+        <v>4.2</v>
       </c>
       <c r="AA21">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AB21">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AC21">
-        <v>6</v>
+        <v>4.9375</v>
       </c>
       <c r="AD21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>4.9375</v>
+        <v>1.8</v>
       </c>
       <c r="AF21">
+        <v>0.25</v>
+      </c>
+      <c r="AG21">
+        <v>-0.25</v>
+      </c>
+      <c r="AH21">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AI21">
+        <v>12</v>
+      </c>
+      <c r="AJ21">
+        <v>34</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>45301</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN21">
+        <v>-1</v>
+      </c>
+      <c r="AO21">
+        <v>-3</v>
+      </c>
+      <c r="AP21">
+        <v>4</v>
+      </c>
+      <c r="AQ21">
+        <v>2.8</v>
+      </c>
+      <c r="AR21">
+        <v>5.75</v>
+      </c>
+      <c r="AS21">
+        <v>3.2</v>
+      </c>
+      <c r="AT21">
+        <v>3.8125</v>
+      </c>
+      <c r="AU21">
         <v>1</v>
       </c>
-      <c r="AG21">
-        <v>1.8</v>
-      </c>
-      <c r="AH21">
-        <v>0.25</v>
-      </c>
-      <c r="AI21">
+      <c r="AV21">
+        <v>1.6</v>
+      </c>
+      <c r="AW21">
         <v>-0.25</v>
       </c>
-      <c r="AJ21">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="AK21">
-        <v>12</v>
-      </c>
-      <c r="AL21">
-        <v>34</v>
-      </c>
-      <c r="AN21" s="3">
-        <v>45301</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP21">
-        <v>-1</v>
-      </c>
-      <c r="AQ21">
-        <v>-3</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT21">
-        <v>4</v>
-      </c>
-      <c r="AU21">
-        <v>2.8</v>
-      </c>
-      <c r="AV21">
-        <v>5.75</v>
-      </c>
-      <c r="AW21">
-        <v>3.2</v>
-      </c>
       <c r="AX21">
-        <v>3.8125</v>
+        <v>0</v>
       </c>
       <c r="AY21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AZ21">
-        <v>1.6</v>
+        <v>10</v>
       </c>
       <c r="BA21">
-        <v>-0.25</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0.5</v>
-      </c>
-      <c r="BD21">
-        <v>10</v>
-      </c>
-      <c r="BE21">
         <v>36</v>
       </c>
-      <c r="BG21" s="3"/>
-      <c r="BZ21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BT21" s="3"/>
     </row>
-    <row r="22" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -11085,7 +10738,7 @@
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="3">
         <v>45297</v>
@@ -11133,7 +10786,7 @@
         <v>45298</v>
       </c>
       <c r="V22" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -11141,220 +10794,196 @@
       <c r="X22">
         <v>3</v>
       </c>
-      <c r="Y22" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>189</v>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+      <c r="Z22">
+        <v>4.2</v>
       </c>
       <c r="AA22">
+        <v>5.25</v>
+      </c>
+      <c r="AB22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC22">
+        <v>4.625</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1.4</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0.25</v>
+      </c>
+      <c r="AH22">
+        <v>0.5</v>
+      </c>
+      <c r="AI22">
+        <v>15</v>
+      </c>
+      <c r="AJ22">
+        <v>33</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>45302</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN22">
+        <v>8</v>
+      </c>
+      <c r="AO22">
+        <v>-3</v>
+      </c>
+      <c r="AP22">
         <v>5</v>
       </c>
-      <c r="AB22">
-        <v>4.2</v>
-      </c>
-      <c r="AC22">
-        <v>5.25</v>
-      </c>
-      <c r="AD22">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AE22">
-        <v>4.625</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22">
-        <v>1.4</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0.25</v>
-      </c>
-      <c r="AJ22">
-        <v>0.5</v>
-      </c>
-      <c r="AK22">
-        <v>15</v>
-      </c>
-      <c r="AL22">
-        <v>33</v>
-      </c>
-      <c r="AN22" s="3">
-        <v>45302</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP22">
-        <v>8</v>
-      </c>
       <c r="AQ22">
-        <v>-3</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>189</v>
+        <v>4.8</v>
+      </c>
+      <c r="AR22">
+        <v>5</v>
+      </c>
+      <c r="AS22">
+        <v>5.2</v>
       </c>
       <c r="AT22">
         <v>5</v>
       </c>
       <c r="AU22">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="AV22">
+        <v>0.6</v>
+      </c>
+      <c r="AW22">
+        <v>0.25</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0.5</v>
+      </c>
+      <c r="AZ22">
+        <v>23</v>
+      </c>
+      <c r="BA22">
+        <v>27</v>
+      </c>
+      <c r="BC22" s="3">
+        <v>45306</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE22">
+        <v>-3</v>
+      </c>
+      <c r="BF22">
+        <v>-1</v>
+      </c>
+      <c r="BG22">
+        <v>4</v>
+      </c>
+      <c r="BH22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BI22">
         <v>5</v>
       </c>
-      <c r="AW22">
-        <v>5.2</v>
-      </c>
-      <c r="AX22">
+      <c r="BJ22">
+        <v>4</v>
+      </c>
+      <c r="BK22">
+        <v>4.4375</v>
+      </c>
+      <c r="BL22">
+        <v>1</v>
+      </c>
+      <c r="BM22">
+        <v>1</v>
+      </c>
+      <c r="BN22">
+        <v>0.5</v>
+      </c>
+      <c r="BO22">
+        <v>0.5</v>
+      </c>
+      <c r="BP22">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BQ22">
+        <v>12</v>
+      </c>
+      <c r="BR22">
+        <v>29</v>
+      </c>
+      <c r="BT22" s="3">
+        <v>45307</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>182</v>
+      </c>
+      <c r="BV22">
+        <v>-5</v>
+      </c>
+      <c r="BW22">
+        <v>-3</v>
+      </c>
+      <c r="BX22">
         <v>5</v>
       </c>
-      <c r="AY22">
-        <v>2</v>
-      </c>
-      <c r="AZ22">
-        <v>0.6</v>
-      </c>
-      <c r="BA22">
+      <c r="BY22">
+        <v>5</v>
+      </c>
+      <c r="BZ22">
+        <v>5</v>
+      </c>
+      <c r="CA22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="CB22">
+        <v>4.8125</v>
+      </c>
+      <c r="CC22">
+        <v>1</v>
+      </c>
+      <c r="CD22">
+        <v>1</v>
+      </c>
+      <c r="CE22">
+        <v>0</v>
+      </c>
+      <c r="CF22">
         <v>0.25</v>
       </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22">
+      <c r="CG22">
         <v>0.5</v>
       </c>
-      <c r="BD22">
-        <v>23</v>
-      </c>
-      <c r="BE22">
+      <c r="CH22">
+        <v>10</v>
+      </c>
+      <c r="CI22">
         <v>27</v>
       </c>
-      <c r="BG22" s="3">
-        <v>45306</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>202</v>
-      </c>
-      <c r="BI22">
-        <v>-3</v>
-      </c>
-      <c r="BJ22">
-        <v>-1</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM22">
-        <v>4</v>
-      </c>
-      <c r="BN22">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="BO22">
-        <v>5</v>
-      </c>
-      <c r="BP22">
-        <v>4</v>
-      </c>
-      <c r="BQ22">
-        <v>4.4375</v>
-      </c>
-      <c r="BR22">
-        <v>1</v>
-      </c>
-      <c r="BS22">
-        <v>1</v>
-      </c>
-      <c r="BT22">
-        <v>0.5</v>
-      </c>
-      <c r="BU22">
-        <v>0.5</v>
-      </c>
-      <c r="BV22">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="BW22">
-        <v>12</v>
-      </c>
-      <c r="BX22">
-        <v>29</v>
-      </c>
-      <c r="BZ22" s="3">
-        <v>45307</v>
-      </c>
-      <c r="CA22" t="s">
-        <v>202</v>
-      </c>
-      <c r="CB22">
-        <v>-5</v>
-      </c>
-      <c r="CC22">
-        <v>-3</v>
-      </c>
-      <c r="CD22" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE22" t="s">
-        <v>219</v>
-      </c>
-      <c r="CF22">
-        <v>5</v>
-      </c>
-      <c r="CG22">
-        <v>5</v>
-      </c>
-      <c r="CH22">
-        <v>5</v>
-      </c>
-      <c r="CI22">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="CJ22">
-        <v>4.8125</v>
-      </c>
-      <c r="CK22">
-        <v>1</v>
-      </c>
-      <c r="CL22">
-        <v>1</v>
-      </c>
-      <c r="CM22">
-        <v>0</v>
-      </c>
-      <c r="CN22">
-        <v>0.25</v>
-      </c>
-      <c r="CO22">
-        <v>0.5</v>
-      </c>
-      <c r="CP22">
-        <v>10</v>
-      </c>
-      <c r="CQ22">
-        <v>27</v>
-      </c>
     </row>
-    <row r="23" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -11363,7 +10992,7 @@
         <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="3">
         <v>45296</v>
@@ -11411,7 +11040,7 @@
         <v>45299</v>
       </c>
       <c r="V23" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="W23">
         <v>-5</v>
@@ -11419,220 +11048,196 @@
       <c r="X23">
         <v>-6</v>
       </c>
-      <c r="Y23" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>198</v>
+      <c r="Y23">
+        <v>5</v>
+      </c>
+      <c r="Z23">
+        <v>4.2</v>
       </c>
       <c r="AA23">
+        <v>4.5</v>
+      </c>
+      <c r="AB23">
+        <v>3.8</v>
+      </c>
+      <c r="AC23">
+        <v>4.25</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>-0.6</v>
+      </c>
+      <c r="AF23">
+        <v>-0.5</v>
+      </c>
+      <c r="AG23">
+        <v>-1.75</v>
+      </c>
+      <c r="AH23">
+        <v>-0.7857142857142857</v>
+      </c>
+      <c r="AI23">
+        <v>14</v>
+      </c>
+      <c r="AJ23">
+        <v>25</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>45303</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN23">
+        <v>-2</v>
+      </c>
+      <c r="AO23">
         <v>5</v>
       </c>
-      <c r="AB23">
-        <v>4.2</v>
-      </c>
-      <c r="AC23">
+      <c r="AP23">
         <v>4.5</v>
       </c>
-      <c r="AD23">
+      <c r="AQ23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AR23">
+        <v>4.5</v>
+      </c>
+      <c r="AS23">
+        <v>3.4</v>
+      </c>
+      <c r="AT23">
+        <v>4.125</v>
+      </c>
+      <c r="AU23">
+        <v>2</v>
+      </c>
+      <c r="AV23">
+        <v>1.2</v>
+      </c>
+      <c r="AW23">
+        <v>-1.5</v>
+      </c>
+      <c r="AX23">
+        <v>0.75</v>
+      </c>
+      <c r="AY23">
+        <v>0.5</v>
+      </c>
+      <c r="AZ23">
+        <v>17</v>
+      </c>
+      <c r="BA23">
+        <v>36</v>
+      </c>
+      <c r="BC23" s="3">
+        <v>45306</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE23">
+        <v>-4</v>
+      </c>
+      <c r="BF23">
+        <v>8</v>
+      </c>
+      <c r="BG23">
+        <v>5</v>
+      </c>
+      <c r="BH23">
+        <v>4</v>
+      </c>
+      <c r="BI23">
+        <v>4.75</v>
+      </c>
+      <c r="BJ23">
         <v>3.8</v>
       </c>
-      <c r="AE23">
+      <c r="BK23">
         <v>4.25</v>
       </c>
-      <c r="AF23">
+      <c r="BL23">
         <v>1</v>
       </c>
-      <c r="AG23">
-        <v>-0.6</v>
-      </c>
-      <c r="AH23">
+      <c r="BM23">
+        <v>0.6</v>
+      </c>
+      <c r="BN23">
+        <v>-1.5</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>15</v>
+      </c>
+      <c r="BR23">
+        <v>39</v>
+      </c>
+      <c r="BT23" s="3">
+        <v>45307</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BV23">
+        <v>-5</v>
+      </c>
+      <c r="BW23">
+        <v>6</v>
+      </c>
+      <c r="BX23">
+        <v>5.5</v>
+      </c>
+      <c r="BY23">
+        <v>3.2</v>
+      </c>
+      <c r="BZ23">
+        <v>4</v>
+      </c>
+      <c r="CA23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="CB23">
+        <v>4.125</v>
+      </c>
+      <c r="CC23">
+        <v>1</v>
+      </c>
+      <c r="CD23">
+        <v>-0.2</v>
+      </c>
+      <c r="CE23">
+        <v>-1.25</v>
+      </c>
+      <c r="CF23">
+        <v>0</v>
+      </c>
+      <c r="CG23">
         <v>-0.5</v>
       </c>
-      <c r="AI23">
-        <v>-1.75</v>
-      </c>
-      <c r="AJ23">
-        <v>-0.7857142857142857</v>
-      </c>
-      <c r="AK23">
+      <c r="CH23">
         <v>14</v>
       </c>
-      <c r="AL23">
-        <v>25</v>
-      </c>
-      <c r="AN23" s="3">
-        <v>45303</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP23">
-        <v>-2</v>
-      </c>
-      <c r="AQ23">
-        <v>5</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>198</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>220</v>
-      </c>
-      <c r="AT23">
-        <v>4.5</v>
-      </c>
-      <c r="AU23">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AV23">
-        <v>4.5</v>
-      </c>
-      <c r="AW23">
-        <v>3.4</v>
-      </c>
-      <c r="AX23">
-        <v>4.125</v>
-      </c>
-      <c r="AY23">
-        <v>2</v>
-      </c>
-      <c r="AZ23">
-        <v>1.2</v>
-      </c>
-      <c r="BA23">
-        <v>-1.5</v>
-      </c>
-      <c r="BB23">
-        <v>0.75</v>
-      </c>
-      <c r="BC23">
-        <v>0.5</v>
-      </c>
-      <c r="BD23">
-        <v>17</v>
-      </c>
-      <c r="BE23">
-        <v>36</v>
-      </c>
-      <c r="BG23" s="3">
-        <v>45306</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>202</v>
-      </c>
-      <c r="BI23">
-        <v>-4</v>
-      </c>
-      <c r="BJ23">
-        <v>8</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM23">
-        <v>5</v>
-      </c>
-      <c r="BN23">
-        <v>4</v>
-      </c>
-      <c r="BO23">
-        <v>4.75</v>
-      </c>
-      <c r="BP23">
-        <v>3.8</v>
-      </c>
-      <c r="BQ23">
-        <v>4.25</v>
-      </c>
-      <c r="BR23">
-        <v>1</v>
-      </c>
-      <c r="BS23">
-        <v>0.6</v>
-      </c>
-      <c r="BT23">
-        <v>-1.5</v>
-      </c>
-      <c r="BU23">
-        <v>0</v>
-      </c>
-      <c r="BV23">
-        <v>0</v>
-      </c>
-      <c r="BW23">
-        <v>15</v>
-      </c>
-      <c r="BX23">
-        <v>39</v>
-      </c>
-      <c r="BZ23" s="3">
-        <v>45307</v>
-      </c>
-      <c r="CA23" t="s">
-        <v>204</v>
-      </c>
-      <c r="CB23">
-        <v>-5</v>
-      </c>
-      <c r="CC23">
-        <v>6</v>
-      </c>
-      <c r="CD23" t="s">
-        <v>198</v>
-      </c>
-      <c r="CE23" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF23">
-        <v>5.5</v>
-      </c>
-      <c r="CG23">
-        <v>3.2</v>
-      </c>
-      <c r="CH23">
-        <v>4</v>
-      </c>
       <c r="CI23">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="CJ23">
-        <v>4.125</v>
-      </c>
-      <c r="CK23">
-        <v>1</v>
-      </c>
-      <c r="CL23">
-        <v>-0.2</v>
-      </c>
-      <c r="CM23">
-        <v>-1.25</v>
-      </c>
-      <c r="CN23">
-        <v>0</v>
-      </c>
-      <c r="CO23">
-        <v>-0.5</v>
-      </c>
-      <c r="CP23">
-        <v>14</v>
-      </c>
-      <c r="CQ23">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -11641,7 +11246,7 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="3">
         <v>45296</v>
@@ -11689,7 +11294,7 @@
         <v>45298</v>
       </c>
       <c r="V24" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="W24">
         <v>-3</v>
@@ -11697,61 +11302,55 @@
       <c r="X24">
         <v>-1</v>
       </c>
-      <c r="Y24" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>189</v>
+      <c r="Y24">
+        <v>1.5</v>
+      </c>
+      <c r="Z24">
+        <v>3.4</v>
       </c>
       <c r="AA24">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="AB24">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="AC24">
-        <v>2.75</v>
+        <v>2.125</v>
       </c>
       <c r="AD24">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>2.125</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="AH24">
-        <v>-0.75</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="AI24">
-        <v>-2.5</v>
+        <v>20</v>
       </c>
       <c r="AJ24">
-        <v>-0.5714285714285714</v>
-      </c>
-      <c r="AK24">
-        <v>20</v>
-      </c>
-      <c r="AL24">
         <v>30</v>
       </c>
-      <c r="AN24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BZ24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BT24" s="3"/>
     </row>
-    <row r="25" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -11760,7 +11359,7 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="3">
         <v>45300</v>
@@ -11805,19 +11404,19 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="U25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="BG25" s="3"/>
-      <c r="BZ25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BT25" s="3"/>
     </row>
-    <row r="26" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -11826,7 +11425,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="3">
         <v>45296</v>
@@ -11874,7 +11473,7 @@
         <v>45297</v>
       </c>
       <c r="V26" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="W26">
         <v>-4</v>
@@ -11882,220 +11481,196 @@
       <c r="X26">
         <v>-3</v>
       </c>
-      <c r="Y26" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>223</v>
+      <c r="Y26">
+        <v>5.5</v>
+      </c>
+      <c r="Z26">
+        <v>4.2</v>
       </c>
       <c r="AA26">
         <v>5.5</v>
       </c>
       <c r="AB26">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AC26">
+        <v>4.8125</v>
+      </c>
+      <c r="AD26">
+        <v>3</v>
+      </c>
+      <c r="AE26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF26">
+        <v>-0.5</v>
+      </c>
+      <c r="AG26">
+        <v>-1.5</v>
+      </c>
+      <c r="AH26">
+        <v>0.5</v>
+      </c>
+      <c r="AI26">
+        <v>14</v>
+      </c>
+      <c r="AJ26">
+        <v>33</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>45301</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN26">
+        <v>-7</v>
+      </c>
+      <c r="AO26">
+        <v>-10</v>
+      </c>
+      <c r="AP26">
+        <v>6</v>
+      </c>
+      <c r="AQ26">
+        <v>5.6</v>
+      </c>
+      <c r="AR26">
+        <v>5</v>
+      </c>
+      <c r="AS26">
+        <v>3.2</v>
+      </c>
+      <c r="AT26">
+        <v>4.75</v>
+      </c>
+      <c r="AU26">
+        <v>2</v>
+      </c>
+      <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <v>-1</v>
+      </c>
+      <c r="AX26">
+        <v>-0.75</v>
+      </c>
+      <c r="AY26">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AZ26">
+        <v>11</v>
+      </c>
+      <c r="BA26">
+        <v>26</v>
+      </c>
+      <c r="BC26" s="3">
+        <v>45305</v>
+      </c>
+      <c r="BE26">
+        <v>-5</v>
+      </c>
+      <c r="BF26">
+        <v>-17</v>
+      </c>
+      <c r="BG26">
+        <v>6</v>
+      </c>
+      <c r="BH26">
+        <v>6</v>
+      </c>
+      <c r="BI26">
+        <v>6</v>
+      </c>
+      <c r="BJ26">
+        <v>6</v>
+      </c>
+      <c r="BK26">
+        <v>6</v>
+      </c>
+      <c r="BL26">
+        <v>3</v>
+      </c>
+      <c r="BM26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN26">
+        <v>-0.5</v>
+      </c>
+      <c r="BO26">
+        <v>0.75</v>
+      </c>
+      <c r="BP26">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="BQ26">
+        <v>13</v>
+      </c>
+      <c r="BR26">
+        <v>19</v>
+      </c>
+      <c r="BT26" s="3">
+        <v>45306</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>183</v>
+      </c>
+      <c r="BV26">
+        <v>-6</v>
+      </c>
+      <c r="BW26">
+        <v>-8</v>
+      </c>
+      <c r="BX26">
         <v>5.5</v>
       </c>
-      <c r="AD26">
+      <c r="BY26">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AE26">
-        <v>4.8125</v>
-      </c>
-      <c r="AF26">
-        <v>3</v>
-      </c>
-      <c r="AG26">
+      <c r="BZ26">
+        <v>5</v>
+      </c>
+      <c r="CA26">
+        <v>3.4</v>
+      </c>
+      <c r="CB26">
+        <v>4.4375</v>
+      </c>
+      <c r="CC26">
+        <v>2</v>
+      </c>
+      <c r="CD26">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AH26">
-        <v>-0.5</v>
-      </c>
-      <c r="AI26">
-        <v>-1.5</v>
-      </c>
-      <c r="AJ26">
+      <c r="CE26">
+        <v>-1.25</v>
+      </c>
+      <c r="CF26">
+        <v>-0.25</v>
+      </c>
+      <c r="CG26">
         <v>0.5</v>
       </c>
-      <c r="AK26">
-        <v>14</v>
-      </c>
-      <c r="AL26">
-        <v>33</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN26" s="3">
-        <v>45301</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>202</v>
-      </c>
-      <c r="AP26">
-        <v>-7</v>
-      </c>
-      <c r="AQ26">
-        <v>-10</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>189</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>224</v>
-      </c>
-      <c r="AT26">
-        <v>6</v>
-      </c>
-      <c r="AU26">
-        <v>5.6</v>
-      </c>
-      <c r="AV26">
-        <v>5</v>
-      </c>
-      <c r="AW26">
-        <v>3.2</v>
-      </c>
-      <c r="AX26">
-        <v>4.75</v>
-      </c>
-      <c r="AY26">
-        <v>2</v>
-      </c>
-      <c r="AZ26">
-        <v>2</v>
-      </c>
-      <c r="BA26">
-        <v>-1</v>
-      </c>
-      <c r="BB26">
-        <v>-0.75</v>
-      </c>
-      <c r="BC26">
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="BD26">
-        <v>11</v>
-      </c>
-      <c r="BE26">
-        <v>26</v>
-      </c>
-      <c r="BG26" s="3">
-        <v>45305</v>
-      </c>
-      <c r="BI26">
-        <v>-5</v>
-      </c>
-      <c r="BJ26">
-        <v>-17</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>189</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM26">
-        <v>6</v>
-      </c>
-      <c r="BN26">
-        <v>6</v>
-      </c>
-      <c r="BO26">
-        <v>6</v>
-      </c>
-      <c r="BP26">
-        <v>6</v>
-      </c>
-      <c r="BQ26">
-        <v>6</v>
-      </c>
-      <c r="BR26">
-        <v>3</v>
-      </c>
-      <c r="BS26">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BT26">
-        <v>-0.5</v>
-      </c>
-      <c r="BU26">
-        <v>0.75</v>
-      </c>
-      <c r="BV26">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="BW26">
-        <v>13</v>
-      </c>
-      <c r="BX26">
-        <v>19</v>
-      </c>
-      <c r="BZ26" s="3">
-        <v>45306</v>
-      </c>
-      <c r="CA26" t="s">
-        <v>204</v>
-      </c>
-      <c r="CB26">
-        <v>-6</v>
-      </c>
-      <c r="CC26">
-        <v>-8</v>
-      </c>
-      <c r="CD26" t="s">
-        <v>225</v>
-      </c>
-      <c r="CE26" t="s">
-        <v>226</v>
-      </c>
-      <c r="CF26">
-        <v>5.5</v>
-      </c>
-      <c r="CG26">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="CH26">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="CI26">
-        <v>3.4</v>
-      </c>
-      <c r="CJ26">
-        <v>4.4375</v>
-      </c>
-      <c r="CK26">
-        <v>2</v>
-      </c>
-      <c r="CL26">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="CM26">
-        <v>-1.25</v>
-      </c>
-      <c r="CN26">
-        <v>-0.25</v>
-      </c>
-      <c r="CO26">
-        <v>0.5</v>
-      </c>
-      <c r="CP26">
-        <v>12</v>
-      </c>
-      <c r="CQ26">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
         <v>87</v>
       </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -12104,7 +11679,7 @@
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="3">
         <v>45297</v>
@@ -12152,7 +11727,7 @@
         <v>45298</v>
       </c>
       <c r="V27" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -12160,220 +11735,196 @@
       <c r="X27">
         <v>-2</v>
       </c>
-      <c r="Y27" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>228</v>
+      <c r="Y27">
+        <v>6</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
       </c>
       <c r="AA27">
         <v>6</v>
       </c>
       <c r="AB27">
+        <v>5.4</v>
+      </c>
+      <c r="AC27">
+        <v>5.8125</v>
+      </c>
+      <c r="AD27">
+        <v>3</v>
+      </c>
+      <c r="AE27">
+        <v>1.6</v>
+      </c>
+      <c r="AF27">
+        <v>-0.75</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AI27">
+        <v>16</v>
+      </c>
+      <c r="AJ27">
+        <v>19</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>45301</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN27">
+        <v>-2</v>
+      </c>
+      <c r="AO27">
+        <v>-3</v>
+      </c>
+      <c r="AP27">
+        <v>4.5</v>
+      </c>
+      <c r="AQ27">
+        <v>1.4</v>
+      </c>
+      <c r="AR27">
         <v>6</v>
       </c>
-      <c r="AC27">
+      <c r="AS27">
+        <v>2.6</v>
+      </c>
+      <c r="AT27">
+        <v>3.3125</v>
+      </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>-1.5</v>
+      </c>
+      <c r="AX27">
+        <v>-2.25</v>
+      </c>
+      <c r="AY27">
+        <v>-0.9285714285714286</v>
+      </c>
+      <c r="AZ27">
+        <v>15</v>
+      </c>
+      <c r="BA27">
+        <v>18</v>
+      </c>
+      <c r="BC27" s="3">
+        <v>45304</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE27">
+        <v>-4</v>
+      </c>
+      <c r="BF27">
+        <v>-4</v>
+      </c>
+      <c r="BG27">
         <v>6</v>
       </c>
-      <c r="AD27">
-        <v>5.4</v>
-      </c>
-      <c r="AE27">
-        <v>5.8125</v>
-      </c>
-      <c r="AF27">
+      <c r="BH27">
+        <v>3.4</v>
+      </c>
+      <c r="BI27">
+        <v>6</v>
+      </c>
+      <c r="BJ27">
+        <v>5.8</v>
+      </c>
+      <c r="BK27">
+        <v>5.125</v>
+      </c>
+      <c r="BL27">
         <v>3</v>
       </c>
-      <c r="AG27">
-        <v>1.6</v>
-      </c>
-      <c r="AH27">
-        <v>-0.75</v>
-      </c>
-      <c r="AI27">
+      <c r="BM27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN27">
         <v>0</v>
       </c>
-      <c r="AJ27">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="AK27">
-        <v>16</v>
-      </c>
-      <c r="AL27">
-        <v>19</v>
-      </c>
-      <c r="AN27" s="3">
-        <v>45301</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP27">
-        <v>-2</v>
-      </c>
-      <c r="AQ27">
-        <v>-3</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>198</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>229</v>
-      </c>
-      <c r="AT27">
-        <v>4.5</v>
-      </c>
-      <c r="AU27">
-        <v>1.4</v>
-      </c>
-      <c r="AV27">
+      <c r="BO27">
+        <v>0.5</v>
+      </c>
+      <c r="BP27">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="BQ27">
+        <v>13</v>
+      </c>
+      <c r="BR27">
+        <v>17</v>
+      </c>
+      <c r="BT27" s="3">
+        <v>45307</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV27">
+        <v>-4</v>
+      </c>
+      <c r="BW27">
+        <v>-1</v>
+      </c>
+      <c r="BX27">
         <v>6</v>
       </c>
-      <c r="AW27">
-        <v>2.6</v>
-      </c>
-      <c r="AX27">
-        <v>3.3125</v>
-      </c>
-      <c r="AY27">
-        <v>1</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>-1.5</v>
-      </c>
-      <c r="BB27">
-        <v>-2.25</v>
-      </c>
-      <c r="BC27">
-        <v>-0.9285714285714286</v>
-      </c>
-      <c r="BD27">
-        <v>15</v>
-      </c>
-      <c r="BE27">
-        <v>18</v>
-      </c>
-      <c r="BG27" s="3">
-        <v>45304</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>202</v>
-      </c>
-      <c r="BI27">
-        <v>-4</v>
-      </c>
-      <c r="BJ27">
-        <v>-4</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>231</v>
-      </c>
-      <c r="BM27">
+      <c r="BY27">
         <v>6</v>
       </c>
-      <c r="BN27">
-        <v>3.4</v>
-      </c>
-      <c r="BO27">
+      <c r="BZ27">
         <v>6</v>
       </c>
-      <c r="BP27">
-        <v>5.8</v>
-      </c>
-      <c r="BQ27">
-        <v>5.125</v>
-      </c>
-      <c r="BR27">
+      <c r="CA27">
+        <v>6</v>
+      </c>
+      <c r="CB27">
+        <v>6</v>
+      </c>
+      <c r="CC27">
         <v>3</v>
       </c>
-      <c r="BS27">
+      <c r="CD27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BT27">
-        <v>0</v>
-      </c>
-      <c r="BU27">
-        <v>0.5</v>
-      </c>
-      <c r="BV27">
-        <v>1.1428571428571428</v>
-      </c>
-      <c r="BW27">
+      <c r="CE27">
+        <v>-0.5</v>
+      </c>
+      <c r="CF27">
+        <v>0.75</v>
+      </c>
+      <c r="CG27">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="CH27">
         <v>13</v>
       </c>
-      <c r="BX27">
-        <v>17</v>
-      </c>
-      <c r="BZ27" s="3">
-        <v>45307</v>
-      </c>
-      <c r="CA27" t="s">
-        <v>192</v>
-      </c>
-      <c r="CB27">
-        <v>-4</v>
-      </c>
-      <c r="CC27">
-        <v>-1</v>
-      </c>
-      <c r="CD27" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE27" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF27">
-        <v>6</v>
-      </c>
-      <c r="CG27">
-        <v>6</v>
-      </c>
-      <c r="CH27">
-        <v>6</v>
-      </c>
       <c r="CI27">
-        <v>6</v>
-      </c>
-      <c r="CJ27">
-        <v>6</v>
-      </c>
-      <c r="CK27">
-        <v>3</v>
-      </c>
-      <c r="CL27">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="CM27">
-        <v>-0.5</v>
-      </c>
-      <c r="CN27">
-        <v>0.75</v>
-      </c>
-      <c r="CO27">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="CP27">
-        <v>13</v>
-      </c>
-      <c r="CQ27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
         <v>90</v>
       </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -12382,7 +11933,7 @@
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="3">
         <v>45299</v>
@@ -12430,7 +11981,7 @@
         <v>45300</v>
       </c>
       <c r="V28" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="W28">
         <v>4</v>
@@ -12438,167 +11989,149 @@
       <c r="X28">
         <v>-3</v>
       </c>
-      <c r="Y28" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>232</v>
+      <c r="Y28">
+        <v>6</v>
+      </c>
+      <c r="Z28">
+        <v>5.6</v>
       </c>
       <c r="AA28">
-        <v>6</v>
+        <v>4.25</v>
       </c>
       <c r="AB28">
         <v>5.6</v>
       </c>
       <c r="AC28">
+        <v>5.3125</v>
+      </c>
+      <c r="AD28">
+        <v>3</v>
+      </c>
+      <c r="AE28">
+        <v>1.4</v>
+      </c>
+      <c r="AF28">
+        <v>-1</v>
+      </c>
+      <c r="AG28">
+        <v>-1</v>
+      </c>
+      <c r="AH28">
+        <v>0.5</v>
+      </c>
+      <c r="AI28">
+        <v>29</v>
+      </c>
+      <c r="AJ28">
+        <v>37</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>45303</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN28">
+        <v>-7</v>
+      </c>
+      <c r="AO28">
+        <v>-1</v>
+      </c>
+      <c r="AP28">
+        <v>5</v>
+      </c>
+      <c r="AQ28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AR28">
+        <v>4.5</v>
+      </c>
+      <c r="AS28">
+        <v>6</v>
+      </c>
+      <c r="AT28">
+        <v>5.0625</v>
+      </c>
+      <c r="AU28">
+        <v>1</v>
+      </c>
+      <c r="AV28">
+        <v>1.2</v>
+      </c>
+      <c r="AW28">
+        <v>-1.75</v>
+      </c>
+      <c r="AX28">
+        <v>-1.5</v>
+      </c>
+      <c r="AY28">
+        <v>-0.21428571428571427</v>
+      </c>
+      <c r="AZ28">
+        <v>18</v>
+      </c>
+      <c r="BA28">
+        <v>39</v>
+      </c>
+      <c r="BC28" s="3">
+        <v>45306</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE28">
+        <v>-7</v>
+      </c>
+      <c r="BF28">
+        <v>1</v>
+      </c>
+      <c r="BG28">
+        <v>3.5</v>
+      </c>
+      <c r="BH28">
+        <v>3.4</v>
+      </c>
+      <c r="BI28">
+        <v>6</v>
+      </c>
+      <c r="BJ28">
+        <v>4</v>
+      </c>
+      <c r="BK28">
         <v>4.25</v>
       </c>
-      <c r="AD28">
-        <v>5.6</v>
-      </c>
-      <c r="AE28">
-        <v>5.3125</v>
-      </c>
-      <c r="AF28">
-        <v>3</v>
-      </c>
-      <c r="AG28">
-        <v>1.4</v>
-      </c>
-      <c r="AH28">
-        <v>-1</v>
-      </c>
-      <c r="AI28">
-        <v>-1</v>
-      </c>
-      <c r="AJ28">
-        <v>0.5</v>
-      </c>
-      <c r="AK28">
-        <v>29</v>
-      </c>
-      <c r="AL28">
+      <c r="BL28">
+        <v>2</v>
+      </c>
+      <c r="BM28">
+        <v>0.8</v>
+      </c>
+      <c r="BN28">
+        <v>-2.5</v>
+      </c>
+      <c r="BO28">
+        <v>-2</v>
+      </c>
+      <c r="BP28">
+        <v>-0.5714285714285714</v>
+      </c>
+      <c r="BQ28">
+        <v>18</v>
+      </c>
+      <c r="BR28">
+        <v>41</v>
+      </c>
+      <c r="BT28" s="3"/>
+    </row>
+    <row r="29" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
         <v>37</v>
-      </c>
-      <c r="AN28" s="3">
-        <v>45303</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP28">
-        <v>-7</v>
-      </c>
-      <c r="AQ28">
-        <v>-1</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT28">
-        <v>5</v>
-      </c>
-      <c r="AU28">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AV28">
-        <v>4.5</v>
-      </c>
-      <c r="AW28">
-        <v>6</v>
-      </c>
-      <c r="AX28">
-        <v>5.0625</v>
-      </c>
-      <c r="AY28">
-        <v>1</v>
-      </c>
-      <c r="AZ28">
-        <v>1.2</v>
-      </c>
-      <c r="BA28">
-        <v>-1.75</v>
-      </c>
-      <c r="BB28">
-        <v>-1.5</v>
-      </c>
-      <c r="BC28">
-        <v>-0.21428571428571427</v>
-      </c>
-      <c r="BD28">
-        <v>18</v>
-      </c>
-      <c r="BE28">
-        <v>39</v>
-      </c>
-      <c r="BG28" s="3">
-        <v>45306</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>208</v>
-      </c>
-      <c r="BI28">
-        <v>-7</v>
-      </c>
-      <c r="BJ28">
-        <v>1</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>234</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>235</v>
-      </c>
-      <c r="BM28">
-        <v>3.5</v>
-      </c>
-      <c r="BN28">
-        <v>3.4</v>
-      </c>
-      <c r="BO28">
-        <v>6</v>
-      </c>
-      <c r="BP28">
-        <v>4</v>
-      </c>
-      <c r="BQ28">
-        <v>4.25</v>
-      </c>
-      <c r="BR28">
-        <v>2</v>
-      </c>
-      <c r="BS28">
-        <v>0.8</v>
-      </c>
-      <c r="BT28">
-        <v>-2.5</v>
-      </c>
-      <c r="BU28">
-        <v>-2</v>
-      </c>
-      <c r="BV28">
-        <v>-0.5714285714285714</v>
-      </c>
-      <c r="BW28">
-        <v>18</v>
-      </c>
-      <c r="BX28">
-        <v>41</v>
-      </c>
-      <c r="BZ28" s="3"/>
-    </row>
-    <row r="29" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -12607,7 +12140,7 @@
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="3">
         <v>45299</v>
@@ -12654,8 +12187,8 @@
       <c r="U29" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:CR2" xr:uid="{CFD4506E-7787-40B5-B507-F98025B636B3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:CR29">
+  <autoFilter ref="A2:CJ2" xr:uid="{CFD4506E-7787-40B5-B507-F98025B636B3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:CJ29">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
